--- a/sputnik/personal/ee/77ee.xlsx
+++ b/sputnik/personal/ee/77ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,16 +34,31 @@
   </si>
   <si>
     <t>баня</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,14 +183,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,10 +202,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,10 +303,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -508,341 +512,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43274</v>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="22">
+        <v>43579</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>9213</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="18">
+        <v>9729</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="4">
-        <v>43344</v>
+        <v>43698</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>9496</v>
+      <c r="C3" s="18">
+        <v>10138</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C2)</f>
-        <v>283</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.5</v>
+        <v>409</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4.49</v>
       </c>
       <c r="F3" s="20">
         <f>PRODUCT(D3,E3)</f>
-        <v>1273.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>43579</v>
+        <v>1836.41</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1836.41</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1836.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="4">
+        <v>43761</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>9729</v>
+        <v>10436</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(C4,-C3)</f>
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="E4" s="21">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="20">
         <f>PRODUCT(D4,E4)</f>
-        <v>1064.8100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43698</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>10138</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(C5,-C4)</f>
-        <v>409</v>
-      </c>
-      <c r="E5" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
-        <v>1836.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43761</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <v>10436</v>
-      </c>
-      <c r="D6" s="3">
-        <f>SUM(C6,-C5)</f>
-        <v>298</v>
-      </c>
-      <c r="E6" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="20">
-        <f>PRODUCT(D6,E6)</f>
         <v>1338.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>1338.02</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1338.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM(G3,G4)</f>
+        <v>3174.4300000000003</v>
+      </c>
+      <c r="H5" s="2">
+        <f>SUM(H3,H4)</f>
+        <v>3174.4300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43274</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>43698</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="5">
-        <v>465</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43344</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C15" s="3">
+        <v>504</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>43761</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
-        <v>476</v>
-      </c>
-      <c r="D18" s="3">
-        <f>SUM(C18,-C17)</f>
-        <v>11</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="20">
-        <f>PRODUCT(D18,E18)</f>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43698</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>504</v>
-      </c>
-      <c r="D19" s="3">
-        <f>SUM(C19,-C18)</f>
-        <v>28</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="C16" s="3">
+        <v>535</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C15)</f>
+        <v>31</v>
+      </c>
+      <c r="E16" s="6">
         <v>4.49</v>
       </c>
-      <c r="F19" s="20">
-        <f>PRODUCT(D19,E19)</f>
-        <v>125.72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43761</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>535</v>
-      </c>
-      <c r="D20" s="3">
-        <f>SUM(C20,-C19)</f>
-        <v>31</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="20">
-        <f>PRODUCT(D20,E20)</f>
+      <c r="F16" s="20">
+        <f>PRODUCT(D16,E16)</f>
         <v>139.19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="G16" s="2">
+        <v>139.19</v>
+      </c>
+      <c r="H16" s="2">
+        <v>139.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -852,12 +827,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -866,12 +841,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/77ee.xlsx
+++ b/sputnik/personal/ee/77ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,9 +303,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -512,17 +514,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
@@ -537,7 +539,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -563,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>43579</v>
       </c>
@@ -579,7 +581,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43698</v>
       </c>
@@ -607,7 +609,7 @@
         <v>1836.41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43761</v>
       </c>
@@ -635,181 +637,217 @@
         <v>1338.02</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>11206</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(C5,-C4)</f>
+        <v>770</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="20">
+        <f>PRODUCT(D5,E5)</f>
+        <v>3457.3</v>
       </c>
       <c r="G5" s="2">
-        <f>SUM(G3,G4)</f>
-        <v>3174.4300000000003</v>
+        <v>1338.02</v>
       </c>
       <c r="H5" s="2">
-        <f>SUM(H3,H4)</f>
-        <v>3174.4300000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1338.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM(G3,G5)</f>
+        <v>3174.4300000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <f>SUM(H3,H5)</f>
+        <v>3174.4300000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="16"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4">
-        <v>43698</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>504</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="20"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43761</v>
+        <v>43698</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
+        <v>504</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43761</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>535</v>
       </c>
-      <c r="D16" s="3">
-        <f>SUM(C16,-C15)</f>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C16)</f>
         <v>31</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>4.49</v>
       </c>
-      <c r="F16" s="20">
-        <f>PRODUCT(D16,E16)</f>
+      <c r="F17" s="20">
+        <f>PRODUCT(D17,E17)</f>
         <v>139.19</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>139.19</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H17" s="2">
         <v>139.19</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>611</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C17)</f>
+        <v>76</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="20">
+        <f>PRODUCT(D18,E18)</f>
+        <v>341.24</v>
+      </c>
+      <c r="G18" s="2">
+        <v>139.19</v>
+      </c>
+      <c r="H18" s="2">
+        <v>139.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -819,6 +857,16 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -827,12 +875,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,12 +889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/77ee.xlsx
+++ b/sputnik/personal/ee/77ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -518,10 +518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -666,21 +666,31 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
+      <c r="A6" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>11633</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C5)</f>
+        <v>427</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="20">
+        <f>PRODUCT(D6,E6)</f>
+        <v>2011.17</v>
       </c>
       <c r="G6" s="2">
-        <f>SUM(G3,G5)</f>
-        <v>3174.4300000000003</v>
+        <v>2011.17</v>
       </c>
       <c r="H6" s="2">
-        <f>SUM(H3,H5)</f>
-        <v>3174.4300000000003</v>
+        <v>2011.17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,27 +698,35 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM(G3,G6)</f>
+        <v>3847.58</v>
+      </c>
+      <c r="H7" s="2">
+        <f>SUM(H3,H6)</f>
+        <v>3847.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -718,7 +736,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -728,117 +746,99 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43698</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>504</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="20"/>
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43761</v>
+        <v>43698</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>535</v>
-      </c>
-      <c r="D17" s="3">
-        <f>SUM(C17,-C16)</f>
-        <v>31</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="20">
-        <f>PRODUCT(D17,E17)</f>
-        <v>139.19</v>
-      </c>
-      <c r="G17" s="2">
-        <v>139.19</v>
-      </c>
-      <c r="H17" s="2">
-        <v>139.19</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43978</v>
+        <v>43761</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>611</v>
+        <v>535</v>
       </c>
       <c r="D18" s="3">
         <f>SUM(C18,-C17)</f>
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6">
         <v>4.49</v>
       </c>
       <c r="F18" s="20">
         <f>PRODUCT(D18,E18)</f>
-        <v>341.24</v>
+        <v>139.19</v>
       </c>
       <c r="G18" s="2">
         <v>139.19</v>
@@ -848,24 +848,70 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>611</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C18)</f>
+        <v>76</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F19" s="20">
+        <f>PRODUCT(D19,E19)</f>
+        <v>341.24</v>
+      </c>
+      <c r="G19" s="2">
+        <v>139.19</v>
+      </c>
+      <c r="H19" s="2">
+        <v>139.19</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>11229</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C19)</f>
+        <v>10618</v>
+      </c>
+      <c r="E20" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="20">
+        <f>PRODUCT(D20,E20)</f>
+        <v>50010.78</v>
+      </c>
+      <c r="G20" s="2">
+        <v>108.33</v>
+      </c>
+      <c r="H20" s="2">
+        <v>108.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/77ee.xlsx
+++ b/sputnik/personal/ee/77ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -518,10 +518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,21 +694,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
+      <c r="A7" s="4">
+        <v>44160</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>11773</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C6)</f>
+        <v>140</v>
+      </c>
+      <c r="E7" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="20">
+        <f>PRODUCT(D7,E7)</f>
+        <v>659.4</v>
       </c>
       <c r="G7" s="2">
-        <f>SUM(G3,G6)</f>
-        <v>3847.58</v>
+        <v>659.4</v>
       </c>
       <c r="H7" s="2">
-        <f>SUM(H3,H6)</f>
-        <v>3847.58</v>
+        <v>659.4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,27 +726,35 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(G3,G7)</f>
+        <v>2495.81</v>
+      </c>
+      <c r="H8" s="2">
+        <f>SUM(H3,H7)</f>
+        <v>2495.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -746,7 +764,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -756,117 +774,99 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43698</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>504</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="20"/>
+      <c r="A17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43761</v>
+        <v>43698</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>535</v>
-      </c>
-      <c r="D18" s="3">
-        <f>SUM(C18,-C17)</f>
-        <v>31</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="20">
-        <f>PRODUCT(D18,E18)</f>
-        <v>139.19</v>
-      </c>
-      <c r="G18" s="2">
-        <v>139.19</v>
-      </c>
-      <c r="H18" s="2">
-        <v>139.19</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43978</v>
+        <v>43761</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>611</v>
+        <v>535</v>
       </c>
       <c r="D19" s="3">
         <f>SUM(C19,-C18)</f>
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6">
         <v>4.49</v>
       </c>
       <c r="F19" s="20">
         <f>PRODUCT(D19,E19)</f>
-        <v>341.24</v>
+        <v>139.19</v>
       </c>
       <c r="G19" s="2">
         <v>139.19</v>
@@ -877,41 +877,69 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44074</v>
+        <v>43978</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="18">
-        <v>11229</v>
+      <c r="C20" s="3">
+        <v>611</v>
       </c>
       <c r="D20" s="3">
         <f>SUM(C20,-C19)</f>
-        <v>10618</v>
-      </c>
-      <c r="E20" s="21">
-        <v>4.71</v>
+        <v>76</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
       </c>
       <c r="F20" s="20">
         <f>PRODUCT(D20,E20)</f>
+        <v>341.24</v>
+      </c>
+      <c r="G20" s="2">
+        <v>139.19</v>
+      </c>
+      <c r="H20" s="2">
+        <v>139.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18">
+        <v>11229</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(C21,-C20)</f>
+        <v>10618</v>
+      </c>
+      <c r="E21" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="20">
+        <f>PRODUCT(D21,E21)</f>
         <v>50010.78</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>108.33</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>108.33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/77ee.xlsx
+++ b/sputnik/personal/ee/77ee.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -911,18 +911,18 @@
         <v>0</v>
       </c>
       <c r="C21" s="18">
-        <v>11229</v>
+        <v>634</v>
       </c>
       <c r="D21" s="3">
         <f>SUM(C21,-C20)</f>
-        <v>10618</v>
+        <v>23</v>
       </c>
       <c r="E21" s="21">
         <v>4.71</v>
       </c>
       <c r="F21" s="20">
         <f>PRODUCT(D21,E21)</f>
-        <v>50010.78</v>
+        <v>108.33</v>
       </c>
       <c r="G21" s="2">
         <v>108.33</v>

--- a/sputnik/personal/ee/77ee.xlsx
+++ b/sputnik/personal/ee/77ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -518,10 +518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,21 +722,31 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
+      <c r="A8" s="4">
+        <v>44375</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>12020</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C7)</f>
+        <v>247</v>
+      </c>
+      <c r="E8" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="20">
+        <f>PRODUCT(D8,E8)</f>
+        <v>1163.3699999999999</v>
       </c>
       <c r="G8" s="2">
-        <f>SUM(G3,G7)</f>
-        <v>2495.81</v>
+        <v>1163.3699999999999</v>
       </c>
       <c r="H8" s="2">
-        <f>SUM(H3,H7)</f>
-        <v>2495.81</v>
+        <v>1163.3699999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,27 +754,35 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM(G3,G7)</f>
+        <v>2495.81</v>
+      </c>
+      <c r="H9" s="2">
+        <f>SUM(H3,H7)</f>
+        <v>2495.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -774,7 +792,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -784,117 +802,99 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43698</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>504</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="20"/>
+      <c r="A18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43761</v>
+        <v>43698</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>535</v>
-      </c>
-      <c r="D19" s="3">
-        <f>SUM(C19,-C18)</f>
-        <v>31</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F19" s="20">
-        <f>PRODUCT(D19,E19)</f>
-        <v>139.19</v>
-      </c>
-      <c r="G19" s="2">
-        <v>139.19</v>
-      </c>
-      <c r="H19" s="2">
-        <v>139.19</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43978</v>
+        <v>43761</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>611</v>
+        <v>535</v>
       </c>
       <c r="D20" s="3">
         <f>SUM(C20,-C19)</f>
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6">
         <v>4.49</v>
       </c>
       <c r="F20" s="20">
         <f>PRODUCT(D20,E20)</f>
-        <v>341.24</v>
+        <v>139.19</v>
       </c>
       <c r="G20" s="2">
         <v>139.19</v>
@@ -905,41 +905,69 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>44074</v>
+        <v>43978</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="18">
-        <v>634</v>
+      <c r="C21" s="3">
+        <v>611</v>
       </c>
       <c r="D21" s="3">
         <f>SUM(C21,-C20)</f>
-        <v>23</v>
-      </c>
-      <c r="E21" s="21">
-        <v>4.71</v>
+        <v>76</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.49</v>
       </c>
       <c r="F21" s="20">
         <f>PRODUCT(D21,E21)</f>
+        <v>341.24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>139.19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>139.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <v>634</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(C22,-C21)</f>
+        <v>23</v>
+      </c>
+      <c r="E22" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="20">
+        <f>PRODUCT(D22,E22)</f>
         <v>108.33</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>108.33</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>108.33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/77ee.xlsx
+++ b/sputnik/personal/ee/77ee.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,14 +592,14 @@
         <v>10138</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C2)</f>
+        <f t="shared" ref="D3:D8" si="0">SUM(C3,-C2)</f>
         <v>409</v>
       </c>
       <c r="E3" s="21">
         <v>4.49</v>
       </c>
       <c r="F3" s="20">
-        <f>PRODUCT(D3,E3)</f>
+        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
         <v>1836.41</v>
       </c>
       <c r="G3" s="2">
@@ -620,14 +620,14 @@
         <v>10436</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C3)</f>
+        <f t="shared" si="0"/>
         <v>298</v>
       </c>
       <c r="E4" s="21">
         <v>4.49</v>
       </c>
       <c r="F4" s="20">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" si="1"/>
         <v>1338.02</v>
       </c>
       <c r="G4" s="2">
@@ -648,14 +648,14 @@
         <v>11206</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C4)</f>
+        <f t="shared" si="0"/>
         <v>770</v>
       </c>
       <c r="E5" s="21">
         <v>4.49</v>
       </c>
       <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>3457.3</v>
       </c>
       <c r="G5" s="2">
@@ -676,14 +676,14 @@
         <v>11633</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C5)</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
       <c r="E6" s="21">
         <v>4.71</v>
       </c>
       <c r="F6" s="20">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>2011.17</v>
       </c>
       <c r="G6" s="2">
@@ -704,14 +704,14 @@
         <v>11773</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C6)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="E7" s="21">
         <v>4.71</v>
       </c>
       <c r="F7" s="20">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>659.4</v>
       </c>
       <c r="G7" s="2">
@@ -732,14 +732,14 @@
         <v>12020</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
       <c r="E8" s="21">
         <v>4.71</v>
       </c>
       <c r="F8" s="20">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>1163.3699999999999</v>
       </c>
       <c r="G8" s="2">
@@ -759,12 +759,12 @@
         <v>10</v>
       </c>
       <c r="G9" s="2">
-        <f>SUM(G3,G7)</f>
-        <v>2495.81</v>
+        <f>SUM(G3:G8)</f>
+        <v>8346.39</v>
       </c>
       <c r="H9" s="2">
-        <f>SUM(H3,H7)</f>
-        <v>2495.81</v>
+        <f>SUM(H3:H8)</f>
+        <v>8346.39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
